--- a/Experiements Result/S-1.xlsx
+++ b/Experiements Result/S-1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="44">
   <si>
     <t>Query no: 1</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">Query:  SELECT   ?o ?o1 WHERE {   ?uri     &lt;http://www.w3.org/2000/01/rdf-schema#label&gt;    ?o.   ?uri   &lt;http://swrc.ontoware.org/ontology#year&gt;     ?o1.      }	</t>
-  </si>
-  <si>
-    <t>Query Type: S1-1</t>
   </si>
   <si>
     <t>Duplicate Unaware Ranking</t>
@@ -549,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:XFD149"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -613,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -634,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
         <v>13</v>
@@ -643,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q4" t="s">
         <v>15</v>
@@ -1222,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1234,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -1255,7 +1252,7 @@
         <v>12</v>
       </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17" t="s">
         <v>13</v>
@@ -1264,7 +1261,7 @@
         <v>14</v>
       </c>
       <c r="P17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q17" t="s">
         <v>15</v>
@@ -1815,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -1823,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1835,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -1856,7 +1853,7 @@
         <v>12</v>
       </c>
       <c r="M30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N30" t="s">
         <v>13</v>
@@ -1865,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="P30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q30" t="s">
         <v>15</v>
@@ -2432,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2444,7 +2441,7 @@
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
@@ -2465,7 +2462,7 @@
         <v>12</v>
       </c>
       <c r="M43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N43" t="s">
         <v>13</v>
@@ -2474,7 +2471,7 @@
         <v>14</v>
       </c>
       <c r="P43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q43" t="s">
         <v>15</v>
@@ -3064,7 +3061,7 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3076,7 +3073,7 @@
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
         <v>8</v>
@@ -3097,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="M56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N56" t="s">
         <v>13</v>
@@ -3106,7 +3103,7 @@
         <v>14</v>
       </c>
       <c r="P56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q56" t="s">
         <v>15</v>
@@ -3725,7 +3722,7 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3737,7 +3734,7 @@
         <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
         <v>8</v>
@@ -3758,7 +3755,7 @@
         <v>12</v>
       </c>
       <c r="M71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N71" t="s">
         <v>13</v>
@@ -3767,7 +3764,7 @@
         <v>14</v>
       </c>
       <c r="P71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q71" t="s">
         <v>15</v>
@@ -4324,7 +4321,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -4336,7 +4333,7 @@
         <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
         <v>8</v>
@@ -4357,7 +4354,7 @@
         <v>12</v>
       </c>
       <c r="M84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N84" t="s">
         <v>13</v>
@@ -4366,7 +4363,7 @@
         <v>14</v>
       </c>
       <c r="P84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q84" t="s">
         <v>15</v>
@@ -4924,7 +4921,7 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -4936,7 +4933,7 @@
         <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
         <v>8</v>
@@ -4957,7 +4954,7 @@
         <v>12</v>
       </c>
       <c r="M97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N97" t="s">
         <v>13</v>
@@ -4966,7 +4963,7 @@
         <v>14</v>
       </c>
       <c r="P97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q97" t="s">
         <v>15</v>
@@ -5506,7 +5503,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B109" t="s">
         <v>21</v>
@@ -5523,7 +5520,7 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -5535,7 +5532,7 @@
         <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
         <v>8</v>
@@ -5556,7 +5553,7 @@
         <v>12</v>
       </c>
       <c r="M110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N110" t="s">
         <v>13</v>
@@ -5565,7 +5562,7 @@
         <v>14</v>
       </c>
       <c r="P110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q110" t="s">
         <v>15</v>
@@ -6122,7 +6119,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -6134,7 +6131,7 @@
         <v>4</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
@@ -6155,7 +6152,7 @@
         <v>12</v>
       </c>
       <c r="M123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N123" t="s">
         <v>13</v>
@@ -6164,7 +6161,7 @@
         <v>14</v>
       </c>
       <c r="P123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q123" t="s">
         <v>15</v>
@@ -6753,7 +6750,7 @@
         <v>33</v>
       </c>
       <c r="D137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -6761,7 +6758,7 @@
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -6773,7 +6770,7 @@
         <v>4</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>8</v>
@@ -6794,7 +6791,7 @@
         <v>12</v>
       </c>
       <c r="M138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N138" t="s">
         <v>13</v>
@@ -6803,7 +6800,7 @@
         <v>14</v>
       </c>
       <c r="P138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q138" t="s">
         <v>15</v>
@@ -6813,6 +6810,9 @@
       <c r="A139">
         <v>1</v>
       </c>
+      <c r="B139">
+        <v>9</v>
+      </c>
       <c r="C139">
         <v>9</v>
       </c>
@@ -6821,6 +6821,9 @@
       </c>
       <c r="E139">
         <v>9</v>
+      </c>
+      <c r="F139">
+        <v>415</v>
       </c>
       <c r="G139">
         <v>415</v>
@@ -6860,6 +6863,9 @@
       <c r="A140">
         <v>2</v>
       </c>
+      <c r="B140">
+        <v>10</v>
+      </c>
       <c r="C140">
         <v>4</v>
       </c>
@@ -6868,6 +6874,9 @@
       </c>
       <c r="E140">
         <v>10</v>
+      </c>
+      <c r="F140">
+        <v>448</v>
       </c>
       <c r="G140">
         <v>554</v>
@@ -6907,6 +6916,9 @@
       <c r="A141">
         <v>3</v>
       </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
       <c r="C141">
         <v>8</v>
       </c>
@@ -6915,6 +6927,9 @@
       </c>
       <c r="E141">
         <v>4</v>
+      </c>
+      <c r="F141">
+        <v>595</v>
       </c>
       <c r="G141">
         <v>556</v>
@@ -6954,6 +6969,9 @@
       <c r="A142">
         <v>4</v>
       </c>
+      <c r="B142">
+        <v>6</v>
+      </c>
       <c r="C142">
         <v>1</v>
       </c>
@@ -6962,6 +6980,9 @@
       </c>
       <c r="E142">
         <v>6</v>
+      </c>
+      <c r="F142">
+        <v>595</v>
       </c>
       <c r="G142">
         <v>569</v>
@@ -7001,6 +7022,9 @@
       <c r="A143">
         <v>5</v>
       </c>
+      <c r="B143">
+        <v>8</v>
+      </c>
       <c r="C143">
         <v>7</v>
       </c>
@@ -7009,6 +7033,9 @@
       </c>
       <c r="E143">
         <v>8</v>
+      </c>
+      <c r="F143">
+        <v>595</v>
       </c>
       <c r="G143">
         <v>610</v>
@@ -7048,6 +7075,9 @@
       <c r="A144">
         <v>6</v>
       </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
       <c r="C144">
         <v>2</v>
       </c>
@@ -7056,6 +7086,9 @@
       </c>
       <c r="E144">
         <v>5</v>
+      </c>
+      <c r="F144">
+        <v>595</v>
       </c>
       <c r="G144">
         <v>617</v>
@@ -7095,6 +7128,9 @@
       <c r="A145">
         <v>7</v>
       </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
       <c r="C145">
         <v>10</v>
       </c>
@@ -7103,6 +7139,9 @@
       </c>
       <c r="E145">
         <v>1</v>
+      </c>
+      <c r="F145">
+        <v>605</v>
       </c>
       <c r="G145">
         <v>639</v>
@@ -7142,6 +7181,9 @@
       <c r="A146">
         <v>8</v>
       </c>
+      <c r="B146">
+        <v>7</v>
+      </c>
       <c r="C146">
         <v>6</v>
       </c>
@@ -7151,6 +7193,9 @@
       <c r="E146">
         <v>7</v>
       </c>
+      <c r="F146">
+        <v>639</v>
+      </c>
       <c r="G146">
         <v>639</v>
       </c>
@@ -7189,6 +7234,9 @@
       <c r="A147">
         <v>9</v>
       </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
       <c r="C147">
         <v>3</v>
       </c>
@@ -7197,6 +7245,9 @@
       </c>
       <c r="E147">
         <v>2</v>
+      </c>
+      <c r="F147">
+        <v>639</v>
       </c>
       <c r="G147">
         <v>639</v>
@@ -7236,6 +7287,9 @@
       <c r="A148">
         <v>10</v>
       </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
       <c r="C148">
         <v>5</v>
       </c>
@@ -7244,6 +7298,9 @@
       </c>
       <c r="E148">
         <v>3</v>
+      </c>
+      <c r="F148">
+        <v>639</v>
       </c>
       <c r="G148">
         <v>639</v>
@@ -7321,7 +7378,7 @@
         <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -7333,7 +7390,7 @@
         <v>4</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
         <v>8</v>
@@ -7354,7 +7411,7 @@
         <v>12</v>
       </c>
       <c r="M151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N151" t="s">
         <v>13</v>
@@ -7363,7 +7420,7 @@
         <v>14</v>
       </c>
       <c r="P151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q151" t="s">
         <v>15</v>
@@ -7943,7 +8000,7 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -7955,7 +8012,7 @@
         <v>4</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G164" t="s">
         <v>8</v>
@@ -7976,7 +8033,7 @@
         <v>12</v>
       </c>
       <c r="M164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N164" t="s">
         <v>13</v>
@@ -7985,7 +8042,7 @@
         <v>14</v>
       </c>
       <c r="P164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q164" t="s">
         <v>15</v>
@@ -8550,7 +8607,7 @@
         <v>3</v>
       </c>
       <c r="B177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -8562,7 +8619,7 @@
         <v>4</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
         <v>8</v>
@@ -8583,7 +8640,7 @@
         <v>12</v>
       </c>
       <c r="M177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N177" t="s">
         <v>13</v>
@@ -8592,7 +8649,7 @@
         <v>14</v>
       </c>
       <c r="P177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q177" t="s">
         <v>15</v>
@@ -9190,7 +9247,7 @@
         <v>3</v>
       </c>
       <c r="B190" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -9202,7 +9259,7 @@
         <v>4</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G190" t="s">
         <v>8</v>
@@ -9223,7 +9280,7 @@
         <v>12</v>
       </c>
       <c r="M190" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N190" t="s">
         <v>13</v>
@@ -9232,7 +9289,7 @@
         <v>14</v>
       </c>
       <c r="P190" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q190" t="s">
         <v>15</v>
